--- a/Photon-Entanglement/g2-Photon-Pair/g2-Photon-Pair.xlsx
+++ b/Photon-Entanglement/g2-Photon-Pair/g2-Photon-Pair.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuichimori/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuichimori/Experiment_III/Photon-Entanglement/g2-Photon-Pair/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FE3E73-0AB8-484D-835B-45AADE3E3897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17BB216-751A-F94F-8A2E-A32029CE7B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{EFC2A930-1AB9-3543-9475-B0C826ADD9FD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{EFC2A930-1AB9-3543-9475-B0C826ADD9FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>S1</t>
     <phoneticPr fontId="1"/>
@@ -81,6 +81,14 @@
   </si>
   <si>
     <t xml:space="preserve">レーザーパワー (mW) </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>η_h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -468,19 +476,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9170C713-B7FD-D047-B3EC-E75B82E97635}">
-  <dimension ref="B4:H10"/>
+  <dimension ref="B4:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D25" sqref="D16:D25"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="213" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:10">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -499,8 +509,14 @@
       <c r="H4" t="s">
         <v>4</v>
       </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:10">
       <c r="B5">
         <v>2.04</v>
       </c>
@@ -524,8 +540,16 @@
         <f>F5/(D5*E5*G5)</f>
         <v>2492.3333658420293</v>
       </c>
+      <c r="I5" cm="1">
+        <f t="array" ref="I5">F5/(0.5*(D5*E5)^{0.5})</f>
+        <v>8.5658796565437081E-2</v>
+      </c>
+      <c r="J5" cm="1">
+        <f t="array" ref="J5">(D5*E5)^{0.5}/(0.5*I5*B5)</f>
+        <v>49170.396419437326</v>
+      </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:10">
       <c r="B6">
         <v>1.63</v>
       </c>
@@ -546,11 +570,19 @@
         <v>4.0000000000000002E-9</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H30" si="0">F6/(D6*E6*G6)</f>
+        <f t="shared" ref="H6:H9" si="0">F6/(D6*E6*G6)</f>
         <v>3024.5022970903519</v>
       </c>
+      <c r="I6" cm="1">
+        <f t="array" ref="I6">F6/(0.5*(D6*E6)^{0.5})</f>
+        <v>8.7441076200172718E-2</v>
+      </c>
+      <c r="J6" cm="1">
+        <f t="array" ref="J6">(D6*E6)^{0.5}/(0.5*I6*B6)</f>
+        <v>50710.569231963957</v>
+      </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:10">
       <c r="B7">
         <v>1.22</v>
       </c>
@@ -574,8 +606,16 @@
         <f t="shared" si="0"/>
         <v>3560.1638263816963</v>
       </c>
+      <c r="I7" cm="1">
+        <f t="array" ref="I7">F7/(0.5*(D7*E7)^{0.5})</f>
+        <v>8.3020944151912454E-2</v>
+      </c>
+      <c r="J7" cm="1">
+        <f t="array" ref="J7">(D7*E7)^{0.5}/(0.5*I7*B7)</f>
+        <v>57558.596396152272</v>
+      </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:10">
       <c r="B8">
         <v>0.81</v>
       </c>
@@ -599,8 +639,16 @@
         <f t="shared" si="0"/>
         <v>5909.724295809694</v>
       </c>
+      <c r="I8" cm="1">
+        <f t="array" ref="I8">F8/(0.5*(D8*E8)^{0.5})</f>
+        <v>9.4777533886627033E-2</v>
+      </c>
+      <c r="J8" cm="1">
+        <f t="array" ref="J8">(D8*E8)^{0.5}/(0.5*I8*B8)</f>
+        <v>52226.120857699796</v>
+      </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:10">
       <c r="B9">
         <v>0.41</v>
       </c>
@@ -624,8 +672,16 @@
         <f t="shared" si="0"/>
         <v>5617.696993907919</v>
       </c>
+      <c r="I9" cm="1">
+        <f t="array" ref="I9">F9/(0.5*(D9*E9)^{0.5})</f>
+        <v>6.3598284848049969E-2</v>
+      </c>
+      <c r="J9" cm="1">
+        <f t="array" ref="J9">(D9*E9)^{0.5}/(0.5*I9*B9)</f>
+        <v>108542.00542005419</v>
+      </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:10">
       <c r="C10" s="1"/>
     </row>
   </sheetData>
